--- a/PALMOIL_NINO.xlsx
+++ b/PALMOIL_NINO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limsoo31\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limsoo31\Documents\PalmOil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC356C2A-9D60-4567-82EE-D50A5413812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA4E08-4CE8-46C9-AC44-D80A0AB6E29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1416" windowWidth="22236" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PALMOIL" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>DATE</t>
   </si>
   <si>
     <t>PPOILUSDM</t>
   </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -990,10 +994,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+    <sheetView topLeftCell="A226" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4081,14 +4085,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1">
         <v>1</v>
       </c>
@@ -7045,7 +7054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10006,5 +10015,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>